--- a/src/test/resources/auto-test-resources/maven-demo-mocked-resources.xlsx
+++ b/src/test/resources/auto-test-resources/maven-demo-mocked-resources.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3408" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3408" uniqueCount="637">
   <si>
     <t>Class</t>
   </si>
@@ -547,6 +547,9 @@
   <si>
     <t>[io.jsonwebtoken.Claims : null
 ]</t>
+  </si>
+  <si>
+    <t>SIMILAR EXCEPTION</t>
   </si>
   <si>
     <t>{"cause":null,"stackTrace":[{"classLoaderName":"app","moduleName":null,"moduleVersion":null,"methodName":"validateClaims","fileName":"JwtUtil.java","lineNumber":72,"nativeMethod":false,"className":"org.unlogged.demo.security.util.JwtUtil"},{"classLoaderName":null,"moduleName":"java.base","moduleVersion":"17.0.10","methodName":"invoke0","fileName":"NativeMethodAccessorImpl.java","lineNumber":-2,"nativeMethod":true,"className":"jdk.internal.reflect.NativeMethodAccessorImpl"},{"classLoaderName":null,"moduleName":"java.base","moduleVersion":"17.0.10","methodName":"invoke","fileName":"NativeMethodAccessorImpl.java","lineNumber":77,"nativeMethod":false,"className":"jdk.internal.reflect.NativeMethodAccessorImpl"},{"classLoaderName":null,"moduleName":"java.base","moduleVersion":"17.0.10","methodName":"invoke","fileName":"DelegatingMethodAccessorImpl.java","lineNumber":43,"nativeMethod":false,"className":"jdk.internal.reflect.DelegatingMethodAccessorImpl"},{"classLoaderName":null,"moduleName":"java.base","moduleVersion":"17.0.10","methodName":"invoke","fileName":"Method.java","lineNumber":568,"nativeMethod":false,"className":"java.lang.reflect.Method"},{"classLoaderName":"app","moduleName":null,"moduleVersion":null,"methodName":"executeCommandRaw","fileName":"AgentCommandExecutorImpl.java","lineNumber":384,"nativeMethod":false,"className":"io.unlogged.AgentCommandExecutorImpl"},{"classLoaderName":"app","moduleName":null,"moduleVersion":null,"methodName":"executeCommand","fileName":"AgentCommandExecutorImpl.java","lineNumber":454,"nativeMethod":false,"className":"io.unlogged.AgentCommandExecutorImpl"},{"classLoaderName":"app","moduleName":null,"moduleVersion":null,"methodName":"serve","fileName":"AgentCommandServer.java","lineNumber":69,"nativeMethod":false,"className":"io.unlogged.command.AgentCommandServer"},{"classLoaderName":"app","moduleName":null,"moduleVersion":null,"methodName":"execute","fileName":"NanoHTTPD.java","lineNumber":945,"nativeMethod":false,"className":"fi.iki.elonen.NanoHTTPD$HTTPSession"},{"classLoaderName":"app","moduleName":null,"moduleVersion":null,"methodName":"run","fileName":"NanoHTTPD.java","lineNumber":192,"nativeMethod":false,"className":"fi.iki.elonen.NanoHTTPD$ClientHandler"},{"classLoaderName":null,"moduleName":"java.base","moduleVersion":"17.0.10","methodName":"run","fileName":"Thread.java","lineNumber":840,"nativeMethod":false,"className":"java.lang.Thread"}],"message":"Cannot invoke \"java.util.Date.after(java.util.Date)\" because the return value of \"io.jsonwebtoken.Claims.getExpiration()\" is null","suppressed":[],"localizedMessage":"Cannot invoke \"java.util.Date.after(java.util.Date)\" because the return value of \"io.jsonwebtoken.Claims.getExpiration()\" is null"}</t>
@@ -1083,6 +1086,9 @@
   <si>
     <t>[byte[] : ["0"]
 ]</t>
+  </si>
+  <si>
+    <t>EQUAL EXCEPTION</t>
   </si>
   <si>
     <t>Exception: Protocol message contained an invalid tag (zero).</t>
@@ -2764,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>43</v>
@@ -2799,7 +2805,7 @@
         <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>49</v>
@@ -2834,7 +2840,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>52</v>
@@ -2898,7 +2904,7 @@
         <v>59</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>60</v>
@@ -3049,7 +3055,7 @@
         <v>59</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>79</v>
@@ -3136,7 +3142,7 @@
         <v>59</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>87</v>
@@ -3165,7 +3171,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>90</v>
@@ -3252,7 +3258,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>100</v>
@@ -3339,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>107</v>
@@ -3374,7 +3380,7 @@
         <v>42</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>109</v>
@@ -3409,7 +3415,7 @@
         <v>48</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>111</v>
@@ -3444,7 +3450,7 @@
         <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>113</v>
@@ -3508,7 +3514,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>118</v>
@@ -3566,7 +3572,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>118</v>
@@ -3653,7 +3659,7 @@
         <v>129</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>130</v>
@@ -3688,7 +3694,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>134</v>
@@ -3723,7 +3729,7 @@
         <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>137</v>
@@ -3816,7 +3822,7 @@
         <v>147</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>148</v>
@@ -3845,7 +3851,7 @@
         <v>14</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>150</v>
@@ -3938,13 +3944,13 @@
         <v>158</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>38</v>
@@ -3961,7 +3967,7 @@
         <v>145</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>145</v>
@@ -3990,7 +3996,7 @@
         <v>145</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>145</v>
@@ -4016,13 +4022,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -4034,24 +4040,24 @@
         <v>15</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -4063,25 +4069,25 @@
         <v>15</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
       </c>
@@ -4092,30 +4098,30 @@
         <v>15</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>15</v>
@@ -4132,13 +4138,13 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -4158,13 +4164,13 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -4187,13 +4193,13 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -4213,13 +4219,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>13</v>
@@ -4242,13 +4248,13 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -4268,13 +4274,13 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -4297,13 +4303,13 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -4323,13 +4329,13 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -4352,13 +4358,13 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>13</v>
@@ -4378,13 +4384,13 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -4407,13 +4413,13 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -4433,13 +4439,13 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
@@ -4462,13 +4468,13 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -4488,13 +4494,13 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>13</v>
@@ -4517,13 +4523,13 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -4543,13 +4549,13 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -4572,13 +4578,13 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
@@ -4598,13 +4604,13 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -4627,54 +4633,54 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="D71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>44</v>
@@ -4683,30 +4689,30 @@
         <v>17</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>44</v>
@@ -4715,18 +4721,18 @@
         <v>17</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
@@ -4738,45 +4744,45 @@
         <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>141</v>
@@ -4784,13 +4790,13 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -4808,18 +4814,18 @@
         <v>17</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>13</v>
@@ -4834,7 +4840,7 @@
         <v>72</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>74</v>
@@ -4842,13 +4848,13 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -4860,7 +4866,7 @@
         <v>15</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>17</v>
@@ -4871,13 +4877,13 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -4886,10 +4892,10 @@
         <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>17</v>
@@ -4900,19 +4906,19 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>15</v>
@@ -4921,7 +4927,7 @@
         <v>72</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>74</v>
@@ -4929,13 +4935,13 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -4950,7 +4956,7 @@
         <v>72</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>74</v>
@@ -4958,13 +4964,13 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -4976,7 +4982,7 @@
         <v>15</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>17</v>
@@ -4987,13 +4993,13 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>13</v>
@@ -5005,7 +5011,7 @@
         <v>15</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>17</v>
@@ -5016,13 +5022,13 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>35</v>
@@ -5034,10 +5040,10 @@
         <v>15</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>38</v>
@@ -5051,13 +5057,13 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>13</v>
@@ -5075,62 +5081,62 @@
         <v>17</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>44</v>
@@ -5139,33 +5145,33 @@
         <v>17</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>38</v>
@@ -5174,18 +5180,18 @@
         <v>17</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>13</v>
@@ -5208,13 +5214,13 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -5237,13 +5243,13 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>13</v>
@@ -5261,18 +5267,18 @@
         <v>17</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>13</v>
@@ -5290,33 +5296,33 @@
         <v>17</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>44</v>
@@ -5325,33 +5331,33 @@
         <v>17</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>38</v>
@@ -5360,47 +5366,47 @@
         <v>17</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>35</v>
@@ -5409,10 +5415,10 @@
         <v>17</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>44</v>
@@ -5421,18 +5427,18 @@
         <v>17</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>35</v>
@@ -5441,10 +5447,10 @@
         <v>17</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>44</v>
@@ -5453,18 +5459,18 @@
         <v>17</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -5476,7 +5482,7 @@
         <v>15</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>17</v>
@@ -5487,13 +5493,13 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>13</v>
@@ -5513,13 +5519,13 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -5531,24 +5537,24 @@
         <v>15</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>13</v>
@@ -5560,7 +5566,7 @@
         <v>15</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>17</v>
@@ -5571,13 +5577,13 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>13</v>
@@ -5600,13 +5606,13 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -5618,7 +5624,7 @@
         <v>15</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>17</v>
@@ -5629,13 +5635,13 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
@@ -5655,13 +5661,13 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -5673,24 +5679,24 @@
         <v>15</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -5708,18 +5714,18 @@
         <v>17</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>13</v>
@@ -5737,18 +5743,18 @@
         <v>17</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -5763,7 +5769,7 @@
         <v>26</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>27</v>
@@ -5771,83 +5777,83 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>13</v>
@@ -5870,19 +5876,19 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>15</v>
@@ -5891,7 +5897,7 @@
         <v>121</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>141</v>
@@ -5899,13 +5905,13 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>13</v>
@@ -5920,7 +5926,7 @@
         <v>26</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>27</v>
@@ -5928,25 +5934,25 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>17</v>
@@ -5957,13 +5963,13 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>13</v>
@@ -5972,10 +5978,10 @@
         <v>17</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>17</v>
@@ -5986,296 +5992,296 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="J123" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>38</v>
@@ -6284,33 +6290,33 @@
         <v>17</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>38</v>
@@ -6319,33 +6325,33 @@
         <v>17</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>38</v>
@@ -6354,33 +6360,33 @@
         <v>17</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>38</v>
@@ -6389,18 +6395,18 @@
         <v>17</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>13</v>
@@ -6412,82 +6418,82 @@
         <v>15</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="J129" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K129" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>13</v>
@@ -6499,53 +6505,53 @@
         <v>15</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>13</v>
@@ -6554,27 +6560,27 @@
         <v>17</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>13</v>
@@ -6586,24 +6592,24 @@
         <v>15</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>13</v>
@@ -6615,24 +6621,24 @@
         <v>15</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>13</v>
@@ -6641,27 +6647,27 @@
         <v>17</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>13</v>
@@ -6673,7 +6679,7 @@
         <v>15</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>17</v>
@@ -6684,13 +6690,13 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>13</v>
@@ -6702,7 +6708,7 @@
         <v>15</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>17</v>
@@ -6713,13 +6719,13 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>13</v>
@@ -6739,13 +6745,13 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>35</v>
@@ -6754,13 +6760,13 @@
         <v>17</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>38</v>
@@ -6774,13 +6780,13 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>13</v>
@@ -6792,24 +6798,24 @@
         <v>15</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>35</v>
@@ -6818,13 +6824,13 @@
         <v>17</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>38</v>
@@ -6833,18 +6839,18 @@
         <v>17</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>13</v>
@@ -6856,7 +6862,7 @@
         <v>15</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>17</v>
@@ -6867,13 +6873,13 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>13</v>
@@ -6885,7 +6891,7 @@
         <v>15</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>17</v>
@@ -6896,13 +6902,13 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>13</v>
@@ -6925,13 +6931,13 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>13</v>
@@ -6954,13 +6960,13 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>13</v>
@@ -6972,7 +6978,7 @@
         <v>15</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>17</v>
@@ -6983,13 +6989,13 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>13</v>
@@ -7001,7 +7007,7 @@
         <v>15</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>17</v>
@@ -7012,13 +7018,13 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>13</v>
@@ -7038,13 +7044,13 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>35</v>
@@ -7053,13 +7059,13 @@
         <v>17</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>38</v>
@@ -7073,13 +7079,13 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>13</v>
@@ -7091,24 +7097,24 @@
         <v>15</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>35</v>
@@ -7117,13 +7123,13 @@
         <v>17</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>38</v>
@@ -7132,18 +7138,18 @@
         <v>17</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>13</v>
@@ -7161,18 +7167,18 @@
         <v>17</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>13</v>
@@ -7190,33 +7196,33 @@
         <v>17</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>38</v>
@@ -7225,33 +7231,33 @@
         <v>17</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>44</v>
@@ -7260,18 +7266,18 @@
         <v>17</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>13</v>
@@ -7294,13 +7300,13 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>13</v>
@@ -7323,13 +7329,13 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>13</v>
@@ -7347,18 +7353,18 @@
         <v>17</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>13</v>
@@ -7376,33 +7382,33 @@
         <v>17</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>38</v>
@@ -7411,33 +7417,33 @@
         <v>17</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>44</v>
@@ -7446,24 +7452,24 @@
         <v>17</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>15</v>
@@ -7480,19 +7486,19 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>15</v>
@@ -7509,13 +7515,13 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>35</v>
@@ -7524,10 +7530,10 @@
         <v>17</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>44</v>
@@ -7536,47 +7542,47 @@
         <v>17</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>35</v>
@@ -7585,10 +7591,10 @@
         <v>17</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>44</v>
@@ -7597,18 +7603,18 @@
         <v>17</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>35</v>
@@ -7617,10 +7623,10 @@
         <v>17</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>44</v>
@@ -7629,47 +7635,47 @@
         <v>17</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K169" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K169" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>13</v>
@@ -7687,18 +7693,18 @@
         <v>17</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>13</v>
@@ -7713,7 +7719,7 @@
         <v>26</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>27</v>
@@ -7721,77 +7727,77 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="D172" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>13</v>
@@ -7814,19 +7820,19 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>15</v>
@@ -7835,7 +7841,7 @@
         <v>121</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>141</v>
@@ -7843,13 +7849,13 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>13</v>
@@ -7864,7 +7870,7 @@
         <v>26</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>27</v>
@@ -7872,25 +7878,25 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>17</v>
@@ -7901,13 +7907,13 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>13</v>
@@ -7916,10 +7922,10 @@
         <v>17</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>17</v>
@@ -7930,296 +7936,296 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I180" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>38</v>
@@ -8228,33 +8234,33 @@
         <v>17</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>38</v>
@@ -8263,33 +8269,33 @@
         <v>17</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>38</v>
@@ -8298,33 +8304,33 @@
         <v>17</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>38</v>
@@ -8333,18 +8339,18 @@
         <v>17</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>13</v>
@@ -8356,82 +8362,82 @@
         <v>15</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="J192" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K192" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="K192" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>13</v>
@@ -8443,53 +8449,53 @@
         <v>15</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>13</v>
@@ -8498,27 +8504,27 @@
         <v>17</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>13</v>
@@ -8530,24 +8536,24 @@
         <v>15</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>13</v>
@@ -8559,53 +8565,53 @@
         <v>15</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G199" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="J199" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>13</v>
@@ -8625,13 +8631,13 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>13</v>
@@ -8654,13 +8660,13 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>13</v>
@@ -8680,13 +8686,13 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>13</v>
@@ -8709,13 +8715,13 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>13</v>
@@ -8738,19 +8744,19 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>15</v>
@@ -8767,13 +8773,13 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>13</v>
@@ -8785,7 +8791,7 @@
         <v>15</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>17</v>
@@ -8796,13 +8802,13 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>13</v>
@@ -8820,24 +8826,24 @@
         <v>17</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>15</v>
@@ -8854,13 +8860,13 @@
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>13</v>
@@ -8878,24 +8884,24 @@
         <v>17</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>15</v>
@@ -8912,13 +8918,13 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>13</v>
@@ -8941,19 +8947,19 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>15</v>
@@ -8970,13 +8976,13 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>13</v>
@@ -8988,30 +8994,30 @@
         <v>15</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>15</v>
@@ -9028,13 +9034,13 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>13</v>
@@ -9052,24 +9058,24 @@
         <v>17</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>15</v>
@@ -9086,13 +9092,13 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>13</v>
@@ -9110,24 +9116,24 @@
         <v>17</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>15</v>
@@ -9144,13 +9150,13 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>13</v>
@@ -9173,19 +9179,19 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>15</v>
@@ -9202,13 +9208,13 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>13</v>
@@ -9228,13 +9234,13 @@
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>13</v>
@@ -9257,13 +9263,13 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>13</v>
@@ -9281,24 +9287,24 @@
         <v>17</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>15</v>
@@ -9315,13 +9321,13 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>13</v>
@@ -9339,24 +9345,24 @@
         <v>17</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>15</v>
@@ -9373,13 +9379,13 @@
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>13</v>
@@ -9397,24 +9403,24 @@
         <v>17</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>15</v>
@@ -9431,13 +9437,13 @@
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>13</v>
@@ -9455,24 +9461,24 @@
         <v>17</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>15</v>
@@ -9489,13 +9495,13 @@
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>13</v>
@@ -9518,19 +9524,19 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>15</v>
@@ -9547,13 +9553,13 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>13</v>
@@ -9576,19 +9582,19 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>15</v>
@@ -9605,13 +9611,13 @@
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>13</v>
@@ -9629,24 +9635,24 @@
         <v>17</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>15</v>
@@ -9663,13 +9669,13 @@
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>13</v>
@@ -9687,24 +9693,24 @@
         <v>17</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>15</v>
@@ -9721,13 +9727,13 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>13</v>
@@ -9745,24 +9751,24 @@
         <v>17</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>15</v>
@@ -9779,13 +9785,13 @@
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>13</v>
@@ -9803,24 +9809,24 @@
         <v>17</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>15</v>
@@ -9837,13 +9843,13 @@
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>13</v>
@@ -9861,24 +9867,24 @@
         <v>17</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>15</v>
@@ -9895,13 +9901,13 @@
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>13</v>
@@ -9919,24 +9925,24 @@
         <v>17</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>15</v>
@@ -9953,13 +9959,13 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>13</v>
@@ -9977,24 +9983,24 @@
         <v>17</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>15</v>
@@ -10011,13 +10017,13 @@
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="C249" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>13</v>
@@ -10029,7 +10035,7 @@
         <v>15</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>17</v>
@@ -10040,13 +10046,13 @@
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>13</v>
@@ -10066,13 +10072,13 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>13</v>
@@ -10095,13 +10101,13 @@
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>13</v>
@@ -10121,13 +10127,13 @@
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>13</v>
@@ -10150,13 +10156,13 @@
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>13</v>
@@ -10176,13 +10182,13 @@
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>13</v>
@@ -10205,13 +10211,13 @@
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>13</v>
@@ -10229,24 +10235,24 @@
         <v>17</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>15</v>
@@ -10263,13 +10269,13 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>13</v>
@@ -10287,24 +10293,24 @@
         <v>17</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>15</v>
@@ -10321,13 +10327,13 @@
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>13</v>
@@ -10347,13 +10353,13 @@
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>13</v>
@@ -10376,13 +10382,13 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>13</v>
@@ -10405,19 +10411,19 @@
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>15</v>
@@ -10434,13 +10440,13 @@
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>13</v>
@@ -10460,13 +10466,13 @@
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>13</v>
@@ -10489,13 +10495,13 @@
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>13</v>
@@ -10507,7 +10513,7 @@
         <v>15</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>17</v>
@@ -10521,7 +10527,7 @@
         <v>119</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>119</v>
@@ -10536,7 +10542,7 @@
         <v>15</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>17</v>
@@ -10550,7 +10556,7 @@
         <v>119</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>119</v>
@@ -10565,13 +10571,13 @@
         <v>15</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
@@ -10579,7 +10585,7 @@
         <v>119</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>119</v>
@@ -10588,7 +10594,7 @@
         <v>13</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>15</v>
@@ -10608,7 +10614,7 @@
         <v>119</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>119</v>
@@ -10623,13 +10629,13 @@
         <v>15</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
@@ -10637,7 +10643,7 @@
         <v>119</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>119</v>
@@ -10646,7 +10652,7 @@
         <v>13</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>15</v>
@@ -10666,7 +10672,7 @@
         <v>132</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>132</v>
@@ -10692,7 +10698,7 @@
         <v>132</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>132</v>
@@ -10721,7 +10727,7 @@
         <v>132</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>132</v>
@@ -10747,7 +10753,7 @@
         <v>132</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>132</v>
@@ -10776,7 +10782,7 @@
         <v>132</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>132</v>
@@ -10791,7 +10797,7 @@
         <v>15</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>17</v>
@@ -10805,7 +10811,7 @@
         <v>132</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>132</v>
@@ -10814,7 +10820,7 @@
         <v>13</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>15</v>
@@ -10834,7 +10840,7 @@
         <v>132</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>132</v>
@@ -10860,7 +10866,7 @@
         <v>132</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>132</v>
@@ -10886,13 +10892,13 @@
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>13</v>
@@ -10904,7 +10910,7 @@
         <v>15</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>17</v>
@@ -10915,19 +10921,19 @@
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C281" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="D281" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>15</v>
@@ -10944,13 +10950,13 @@
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>13</v>
@@ -10962,7 +10968,7 @@
         <v>15</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>17</v>
@@ -10973,19 +10979,19 @@
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>15</v>
@@ -11002,13 +11008,13 @@
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>13</v>
@@ -11020,7 +11026,7 @@
         <v>15</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>17</v>
@@ -11031,13 +11037,13 @@
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>13</v>
@@ -11057,13 +11063,13 @@
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>13</v>
@@ -11086,13 +11092,13 @@
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>13</v>
@@ -11112,13 +11118,13 @@
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>13</v>
@@ -11141,13 +11147,13 @@
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>13</v>
@@ -11167,13 +11173,13 @@
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>13</v>
@@ -11196,13 +11202,13 @@
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>13</v>
@@ -11222,13 +11228,13 @@
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>13</v>
@@ -11251,13 +11257,13 @@
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>13</v>
@@ -11277,13 +11283,13 @@
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>13</v>
@@ -11306,13 +11312,13 @@
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>13</v>
@@ -11335,19 +11341,19 @@
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>15</v>
@@ -11367,7 +11373,7 @@
         <v>81</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>81</v>
@@ -11382,7 +11388,7 @@
         <v>15</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>17</v>
@@ -11396,7 +11402,7 @@
         <v>81</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>81</v>
@@ -11405,7 +11411,7 @@
         <v>13</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>15</v>
@@ -11425,7 +11431,7 @@
         <v>81</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>81</v>
@@ -11454,7 +11460,7 @@
         <v>81</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>81</v>
@@ -11463,7 +11469,7 @@
         <v>13</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>15</v>
@@ -11483,7 +11489,7 @@
         <v>81</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>81</v>
@@ -11498,7 +11504,7 @@
         <v>15</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>17</v>
@@ -11512,7 +11518,7 @@
         <v>81</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>81</v>
@@ -11521,7 +11527,7 @@
         <v>13</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>15</v>
@@ -11538,13 +11544,13 @@
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>13</v>
@@ -11562,18 +11568,18 @@
         <v>17</v>
       </c>
       <c r="K303" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>13</v>
@@ -11596,13 +11602,13 @@
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>13</v>
@@ -11622,13 +11628,13 @@
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>13</v>
@@ -11651,13 +11657,13 @@
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>13</v>
@@ -11677,19 +11683,19 @@
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>15</v>
@@ -11706,13 +11712,13 @@
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>13</v>
@@ -11730,18 +11736,18 @@
         <v>17</v>
       </c>
       <c r="K309" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>13</v>
@@ -11764,13 +11770,13 @@
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>13</v>
@@ -11782,7 +11788,7 @@
         <v>15</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>17</v>
@@ -11796,7 +11802,7 @@
         <v>74</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>74</v>
@@ -11817,7 +11823,7 @@
         <v>17</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
@@ -11825,7 +11831,7 @@
         <v>74</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>74</v>
@@ -11854,7 +11860,7 @@
         <v>74</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>74</v>
@@ -11880,7 +11886,7 @@
         <v>74</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>74</v>
@@ -11909,7 +11915,7 @@
         <v>74</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>74</v>
@@ -11935,7 +11941,7 @@
         <v>74</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>74</v>
@@ -11964,7 +11970,7 @@
         <v>74</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>74</v>
@@ -11990,7 +11996,7 @@
         <v>74</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>74</v>
@@ -12019,7 +12025,7 @@
         <v>74</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>74</v>
@@ -12045,7 +12051,7 @@
         <v>74</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>74</v>
@@ -12074,7 +12080,7 @@
         <v>74</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>74</v>
@@ -12100,7 +12106,7 @@
         <v>74</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>74</v>
@@ -12129,7 +12135,7 @@
         <v>74</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>74</v>
@@ -12158,7 +12164,7 @@
         <v>74</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>74</v>
@@ -12167,7 +12173,7 @@
         <v>13</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>15</v>
@@ -12187,7 +12193,7 @@
         <v>74</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>74</v>
@@ -12202,7 +12208,7 @@
         <v>15</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="J326" s="1" t="s">
         <v>17</v>
@@ -12213,13 +12219,13 @@
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>13</v>
@@ -12239,13 +12245,13 @@
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>13</v>
@@ -12265,13 +12271,13 @@
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>13</v>
@@ -12283,24 +12289,24 @@
         <v>15</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J329" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K329" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>13</v>
@@ -12323,13 +12329,13 @@
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>13</v>
@@ -12352,13 +12358,13 @@
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>13</v>
@@ -12381,19 +12387,19 @@
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>15</v>
@@ -12410,19 +12416,19 @@
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>15</v>
@@ -12439,25 +12445,25 @@
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J335" s="1" t="s">
         <v>17</v>
@@ -12468,25 +12474,25 @@
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J336" s="1" t="s">
         <v>17</v>
@@ -12497,13 +12503,13 @@
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>13</v>
@@ -12512,10 +12518,10 @@
         <v>17</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J337" s="1" t="s">
         <v>17</v>
@@ -12526,13 +12532,13 @@
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>13</v>
@@ -12544,7 +12550,7 @@
         <v>15</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J338" s="1" t="s">
         <v>17</v>
@@ -12558,7 +12564,7 @@
         <v>65</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>65</v>
@@ -12573,7 +12579,7 @@
         <v>15</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J339" s="1" t="s">
         <v>17</v>
@@ -12587,7 +12593,7 @@
         <v>65</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>65</v>
@@ -12596,7 +12602,7 @@
         <v>13</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>15</v>
@@ -12616,7 +12622,7 @@
         <v>65</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>65</v>
@@ -12631,7 +12637,7 @@
         <v>15</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J341" s="1" t="s">
         <v>17</v>
@@ -12645,7 +12651,7 @@
         <v>65</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>65</v>
@@ -12654,7 +12660,7 @@
         <v>13</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>15</v>
@@ -12674,7 +12680,7 @@
         <v>65</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>65</v>
@@ -12689,7 +12695,7 @@
         <v>15</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J343" s="1" t="s">
         <v>17</v>
@@ -12703,7 +12709,7 @@
         <v>65</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>65</v>
@@ -12712,7 +12718,7 @@
         <v>13</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>15</v>
@@ -12732,7 +12738,7 @@
         <v>65</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>65</v>
@@ -12747,7 +12753,7 @@
         <v>15</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J345" s="1" t="s">
         <v>17</v>
@@ -12761,7 +12767,7 @@
         <v>65</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>65</v>
@@ -12770,7 +12776,7 @@
         <v>13</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>15</v>
@@ -12787,13 +12793,13 @@
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>13</v>
@@ -12808,7 +12814,7 @@
         <v>72</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K347" s="1" t="s">
         <v>74</v>
@@ -12816,13 +12822,13 @@
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>13</v>
@@ -12837,7 +12843,7 @@
         <v>72</v>
       </c>
       <c r="J348" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K348" s="1" t="s">
         <v>74</v>
@@ -12845,13 +12851,13 @@
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>13</v>
@@ -12866,7 +12872,7 @@
         <v>72</v>
       </c>
       <c r="J349" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="K349" s="1" t="s">
         <v>74</v>
@@ -12874,13 +12880,13 @@
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>13</v>
@@ -12895,7 +12901,7 @@
         <v>72</v>
       </c>
       <c r="J350" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K350" s="1" t="s">
         <v>74</v>
@@ -12903,13 +12909,13 @@
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>13</v>
@@ -12918,13 +12924,13 @@
         <v>59</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J351" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K351" s="1" t="s">
         <v>81</v>
@@ -12932,13 +12938,13 @@
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>35</v>
@@ -12947,33 +12953,33 @@
         <v>17</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="I352" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J352" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>13</v>
@@ -12988,7 +12994,7 @@
         <v>31</v>
       </c>
       <c r="J353" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K353" s="1" t="s">
         <v>33</v>
@@ -12996,13 +13002,13 @@
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>13</v>
@@ -13017,7 +13023,7 @@
         <v>55</v>
       </c>
       <c r="J354" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="K354" s="1" t="s">
         <v>46</v>
@@ -13025,19 +13031,19 @@
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>15</v>
@@ -13046,7 +13052,7 @@
         <v>55</v>
       </c>
       <c r="J355" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="K355" s="1" t="s">
         <v>46</v>
@@ -13054,13 +13060,13 @@
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>13</v>
@@ -13075,7 +13081,7 @@
         <v>55</v>
       </c>
       <c r="J356" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K356" s="1" t="s">
         <v>46</v>
@@ -13083,13 +13089,13 @@
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>13</v>
@@ -13101,24 +13107,24 @@
         <v>15</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="J357" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K357" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>35</v>
@@ -13127,10 +13133,10 @@
         <v>17</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="I358" s="1" t="s">
         <v>44</v>
@@ -13139,18 +13145,18 @@
         <v>17</v>
       </c>
       <c r="K358" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>13</v>
@@ -13162,7 +13168,7 @@
         <v>15</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="J359" s="1" t="s">
         <v>17</v>
@@ -13173,28 +13179,28 @@
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="I360" s="1" t="s">
         <v>38</v>
@@ -13208,13 +13214,13 @@
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>35</v>
@@ -13223,19 +13229,19 @@
         <v>14</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="I361" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J361" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K361" s="1" t="s">
         <v>18</v>
@@ -13243,13 +13249,13 @@
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>13</v>
@@ -13264,7 +13270,7 @@
         <v>16</v>
       </c>
       <c r="J362" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="K362" s="1" t="s">
         <v>18</v>
@@ -13272,13 +13278,13 @@
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>35</v>
@@ -13287,19 +13293,19 @@
         <v>17</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="I363" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J363" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K363" s="1" t="s">
         <v>141</v>
@@ -13307,13 +13313,13 @@
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>13</v>
@@ -13328,7 +13334,7 @@
         <v>121</v>
       </c>
       <c r="J364" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K364" s="1" t="s">
         <v>141</v>
@@ -13336,13 +13342,13 @@
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>35</v>
@@ -13351,10 +13357,10 @@
         <v>17</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="I365" s="1" t="s">
         <v>44</v>
@@ -13363,18 +13369,18 @@
         <v>17</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>35</v>
@@ -13383,10 +13389,10 @@
         <v>17</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="I366" s="1" t="s">
         <v>44</v>
@@ -13395,18 +13401,18 @@
         <v>17</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>35</v>
@@ -13415,10 +13421,10 @@
         <v>17</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="I367" s="1" t="s">
         <v>44</v>
@@ -13427,18 +13433,18 @@
         <v>17</v>
       </c>
       <c r="K367" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>35</v>
@@ -13447,10 +13453,10 @@
         <v>17</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="I368" s="1" t="s">
         <v>44</v>
@@ -13459,18 +13465,18 @@
         <v>17</v>
       </c>
       <c r="K368" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>35</v>
@@ -13479,10 +13485,10 @@
         <v>17</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="I369" s="1" t="s">
         <v>44</v>
@@ -13491,7 +13497,7 @@
         <v>17</v>
       </c>
       <c r="K369" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="370" ht="15.75" customHeight="1"/>

--- a/src/test/resources/auto-test-resources/maven-demo-mocked-resources.xlsx
+++ b/src/test/resources/auto-test-resources/maven-demo-mocked-resources.xlsx
@@ -5037,7 +5037,7 @@
         <v>17</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>232</v>

--- a/src/test/resources/auto-test-resources/maven-demo-mocked-resources.xlsx
+++ b/src/test/resources/auto-test-resources/maven-demo-mocked-resources.xlsx
@@ -3886,7 +3886,7 @@
         <v>154</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>121</v>
@@ -3915,7 +3915,7 @@
         <v>154</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>121</v>
@@ -3979,7 +3979,7 @@
         <v>158</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>121</v>
@@ -4008,7 +4008,7 @@
         <v>158</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>121</v>
@@ -6531,7 +6531,7 @@
         <v>344</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>345</v>
@@ -8475,7 +8475,7 @@
         <v>344</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>414</v>
@@ -8620,7 +8620,7 @@
         <v>17</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>17</v>
@@ -8646,7 +8646,7 @@
         <v>14</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>121</v>
@@ -8675,7 +8675,7 @@
         <v>17</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>17</v>
@@ -8701,7 +8701,7 @@
         <v>14</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>121</v>
@@ -8730,7 +8730,7 @@
         <v>17</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>26</v>
@@ -8759,7 +8759,7 @@
         <v>239</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>121</v>
@@ -8788,7 +8788,7 @@
         <v>17</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>427</v>
@@ -8817,7 +8817,7 @@
         <v>17</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>26</v>
@@ -8846,7 +8846,7 @@
         <v>432</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>121</v>
@@ -8875,7 +8875,7 @@
         <v>17</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>26</v>
@@ -8904,7 +8904,7 @@
         <v>432</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>121</v>
@@ -8933,7 +8933,7 @@
         <v>17</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>26</v>
@@ -8962,7 +8962,7 @@
         <v>239</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>121</v>
@@ -8991,7 +8991,7 @@
         <v>17</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>438</v>
@@ -9020,7 +9020,7 @@
         <v>440</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>121</v>
@@ -9049,7 +9049,7 @@
         <v>17</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>26</v>
@@ -9078,7 +9078,7 @@
         <v>432</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>121</v>
@@ -9107,7 +9107,7 @@
         <v>17</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>26</v>
@@ -9136,7 +9136,7 @@
         <v>432</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>121</v>
@@ -9165,7 +9165,7 @@
         <v>17</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>26</v>
@@ -9194,7 +9194,7 @@
         <v>239</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>121</v>
@@ -9223,7 +9223,7 @@
         <v>17</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>17</v>
@@ -9249,7 +9249,7 @@
         <v>14</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>121</v>
@@ -9278,7 +9278,7 @@
         <v>17</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>26</v>
@@ -9307,7 +9307,7 @@
         <v>432</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>121</v>
@@ -9336,7 +9336,7 @@
         <v>17</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>26</v>
@@ -9365,7 +9365,7 @@
         <v>432</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>121</v>
@@ -9394,7 +9394,7 @@
         <v>17</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>26</v>
@@ -9423,7 +9423,7 @@
         <v>432</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>121</v>
@@ -9452,7 +9452,7 @@
         <v>17</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>26</v>
@@ -9481,7 +9481,7 @@
         <v>432</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>121</v>
@@ -9510,7 +9510,7 @@
         <v>17</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>26</v>
@@ -9539,7 +9539,7 @@
         <v>239</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>121</v>
@@ -9568,7 +9568,7 @@
         <v>17</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>26</v>
@@ -9597,7 +9597,7 @@
         <v>239</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>121</v>
@@ -9626,7 +9626,7 @@
         <v>17</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>26</v>
@@ -9655,7 +9655,7 @@
         <v>432</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>121</v>
@@ -9684,7 +9684,7 @@
         <v>17</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>26</v>
@@ -9713,7 +9713,7 @@
         <v>432</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>121</v>
@@ -9742,7 +9742,7 @@
         <v>17</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>26</v>
@@ -9771,7 +9771,7 @@
         <v>432</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>121</v>
@@ -9800,7 +9800,7 @@
         <v>17</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>26</v>
@@ -9829,7 +9829,7 @@
         <v>432</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>121</v>
@@ -9858,7 +9858,7 @@
         <v>17</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>26</v>
@@ -9887,7 +9887,7 @@
         <v>432</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>121</v>
@@ -9916,7 +9916,7 @@
         <v>17</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>26</v>
@@ -9945,7 +9945,7 @@
         <v>432</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>121</v>
@@ -9974,7 +9974,7 @@
         <v>17</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>26</v>
@@ -10003,7 +10003,7 @@
         <v>432</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>121</v>
@@ -10032,7 +10032,7 @@
         <v>17</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>475</v>
@@ -10061,7 +10061,7 @@
         <v>17</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>17</v>
@@ -10087,7 +10087,7 @@
         <v>14</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>121</v>
@@ -10116,7 +10116,7 @@
         <v>17</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>17</v>
@@ -10142,7 +10142,7 @@
         <v>14</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>121</v>
@@ -10171,7 +10171,7 @@
         <v>17</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>17</v>
@@ -10197,7 +10197,7 @@
         <v>14</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>121</v>
@@ -10226,7 +10226,7 @@
         <v>17</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>26</v>
@@ -10255,7 +10255,7 @@
         <v>432</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>121</v>
@@ -10284,7 +10284,7 @@
         <v>17</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>26</v>
@@ -10313,7 +10313,7 @@
         <v>432</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>121</v>
@@ -10342,7 +10342,7 @@
         <v>17</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>17</v>
@@ -10368,7 +10368,7 @@
         <v>14</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>121</v>
@@ -10397,7 +10397,7 @@
         <v>17</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>26</v>
@@ -10426,7 +10426,7 @@
         <v>239</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>121</v>
@@ -10455,7 +10455,7 @@
         <v>17</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>17</v>
@@ -10481,7 +10481,7 @@
         <v>14</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>121</v>
@@ -10510,7 +10510,7 @@
         <v>17</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>492</v>
@@ -10539,7 +10539,7 @@
         <v>17</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>493</v>
@@ -10568,7 +10568,7 @@
         <v>17</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>495</v>
@@ -10597,7 +10597,7 @@
         <v>497</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>121</v>
@@ -10626,7 +10626,7 @@
         <v>17</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>499</v>
@@ -10655,7 +10655,7 @@
         <v>501</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G271" s="1" t="s">
         <v>121</v>
@@ -10684,7 +10684,7 @@
         <v>17</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>17</v>
@@ -10710,7 +10710,7 @@
         <v>14</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>121</v>
@@ -10739,7 +10739,7 @@
         <v>17</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>17</v>
@@ -10765,7 +10765,7 @@
         <v>14</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>121</v>
@@ -10794,7 +10794,7 @@
         <v>17</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>261</v>
@@ -10823,7 +10823,7 @@
         <v>508</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>121</v>
@@ -10852,7 +10852,7 @@
         <v>17</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>17</v>
@@ -10878,7 +10878,7 @@
         <v>14</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>121</v>
@@ -10907,7 +10907,7 @@
         <v>17</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>261</v>
@@ -10936,7 +10936,7 @@
         <v>508</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>121</v>
@@ -10965,7 +10965,7 @@
         <v>17</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G282" s="1" t="s">
         <v>515</v>
@@ -10994,7 +10994,7 @@
         <v>224</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>121</v>
@@ -11023,7 +11023,7 @@
         <v>17</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>517</v>
@@ -11052,7 +11052,7 @@
         <v>17</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>17</v>
@@ -11078,7 +11078,7 @@
         <v>14</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>121</v>
@@ -11107,7 +11107,7 @@
         <v>17</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>17</v>
@@ -11133,7 +11133,7 @@
         <v>14</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G288" s="1" t="s">
         <v>121</v>
@@ -11162,7 +11162,7 @@
         <v>17</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>17</v>
@@ -11188,7 +11188,7 @@
         <v>14</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G290" s="1" t="s">
         <v>121</v>
@@ -11217,7 +11217,7 @@
         <v>17</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>17</v>
@@ -11243,7 +11243,7 @@
         <v>14</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>121</v>
@@ -11272,7 +11272,7 @@
         <v>17</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>17</v>
@@ -11298,7 +11298,7 @@
         <v>14</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G294" s="1" t="s">
         <v>121</v>
@@ -11327,7 +11327,7 @@
         <v>17</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G295" s="1" t="s">
         <v>17</v>
@@ -11356,7 +11356,7 @@
         <v>529</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G296" s="1" t="s">
         <v>121</v>
@@ -11385,7 +11385,7 @@
         <v>17</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G297" s="1" t="s">
         <v>515</v>
@@ -11414,7 +11414,7 @@
         <v>224</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>121</v>
@@ -11443,7 +11443,7 @@
         <v>17</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G299" s="1" t="s">
         <v>26</v>
@@ -11472,7 +11472,7 @@
         <v>239</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G300" s="1" t="s">
         <v>121</v>
@@ -11501,7 +11501,7 @@
         <v>17</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G301" s="1" t="s">
         <v>261</v>
@@ -11530,7 +11530,7 @@
         <v>508</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G302" s="1" t="s">
         <v>121</v>
@@ -11559,7 +11559,7 @@
         <v>17</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G303" s="1" t="s">
         <v>26</v>
@@ -11588,7 +11588,7 @@
         <v>59</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G304" s="1" t="s">
         <v>121</v>
@@ -11617,7 +11617,7 @@
         <v>17</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>17</v>
@@ -11643,7 +11643,7 @@
         <v>14</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G306" s="1" t="s">
         <v>121</v>
@@ -11672,7 +11672,7 @@
         <v>17</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>17</v>
@@ -11698,7 +11698,7 @@
         <v>542</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G308" s="1" t="s">
         <v>121</v>
@@ -11727,7 +11727,7 @@
         <v>17</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G309" s="1" t="s">
         <v>26</v>
@@ -11756,7 +11756,7 @@
         <v>59</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G310" s="1" t="s">
         <v>121</v>
@@ -11785,7 +11785,7 @@
         <v>17</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G311" s="1" t="s">
         <v>545</v>
@@ -11814,7 +11814,7 @@
         <v>17</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G312" s="1" t="s">
         <v>26</v>
@@ -11843,7 +11843,7 @@
         <v>59</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G313" s="1" t="s">
         <v>121</v>
@@ -11872,7 +11872,7 @@
         <v>17</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>17</v>
@@ -11898,7 +11898,7 @@
         <v>14</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G315" s="1" t="s">
         <v>121</v>
@@ -11927,7 +11927,7 @@
         <v>17</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>17</v>
@@ -11953,7 +11953,7 @@
         <v>14</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G317" s="1" t="s">
         <v>121</v>
@@ -11982,7 +11982,7 @@
         <v>17</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>17</v>
@@ -12008,7 +12008,7 @@
         <v>14</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G319" s="1" t="s">
         <v>121</v>
@@ -12037,7 +12037,7 @@
         <v>17</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>17</v>
@@ -12063,7 +12063,7 @@
         <v>14</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G321" s="1" t="s">
         <v>121</v>
@@ -12092,7 +12092,7 @@
         <v>17</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>17</v>
@@ -12118,7 +12118,7 @@
         <v>14</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G323" s="1" t="s">
         <v>121</v>
@@ -12147,7 +12147,7 @@
         <v>17</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G324" s="1" t="s">
         <v>17</v>
@@ -12176,7 +12176,7 @@
         <v>554</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G325" s="1" t="s">
         <v>121</v>
@@ -12205,7 +12205,7 @@
         <v>17</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G326" s="1" t="s">
         <v>555</v>
@@ -12234,7 +12234,7 @@
         <v>17</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J327" s="1" t="s">
         <v>17</v>
@@ -12260,7 +12260,7 @@
         <v>17</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J328" s="1" t="s">
         <v>17</v>
@@ -12286,7 +12286,7 @@
         <v>17</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G329" s="1" t="s">
         <v>558</v>
@@ -12315,7 +12315,7 @@
         <v>17</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G330" s="1" t="s">
         <v>26</v>
@@ -12344,7 +12344,7 @@
         <v>14</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>121</v>
@@ -12373,7 +12373,7 @@
         <v>14</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G332" s="1" t="s">
         <v>121</v>
@@ -12402,7 +12402,7 @@
         <v>562</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G333" s="1" t="s">
         <v>121</v>
@@ -12431,7 +12431,7 @@
         <v>239</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G334" s="1" t="s">
         <v>121</v>
@@ -12460,7 +12460,7 @@
         <v>291</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G335" s="1" t="s">
         <v>261</v>
@@ -12489,7 +12489,7 @@
         <v>291</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G336" s="1" t="s">
         <v>261</v>
@@ -12518,7 +12518,7 @@
         <v>17</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G337" s="1" t="s">
         <v>565</v>
@@ -12547,7 +12547,7 @@
         <v>17</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G338" s="1" t="s">
         <v>566</v>
@@ -12576,7 +12576,7 @@
         <v>17</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G339" s="1" t="s">
         <v>515</v>
@@ -12605,7 +12605,7 @@
         <v>224</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G340" s="1" t="s">
         <v>121</v>
@@ -12634,7 +12634,7 @@
         <v>17</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G341" s="1" t="s">
         <v>261</v>
@@ -12663,7 +12663,7 @@
         <v>508</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G342" s="1" t="s">
         <v>121</v>
@@ -12692,7 +12692,7 @@
         <v>17</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G343" s="1" t="s">
         <v>261</v>
@@ -12721,7 +12721,7 @@
         <v>508</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G344" s="1" t="s">
         <v>121</v>
@@ -12750,7 +12750,7 @@
         <v>17</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G345" s="1" t="s">
         <v>570</v>
@@ -12779,7 +12779,7 @@
         <v>572</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G346" s="1" t="s">
         <v>121</v>
@@ -12953,7 +12953,7 @@
         <v>17</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="G352" s="1" t="s">
         <v>587</v>

--- a/src/test/resources/auto-test-resources/maven-demo-mocked-resources.xlsx
+++ b/src/test/resources/auto-test-resources/maven-demo-mocked-resources.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="RRT+9iVhCSmQC79bpFsm8U+fvDGXN7GjTQDVRTwRUDk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="nuYLwtnHyNvrzQx4z4iyBC/vtXVWSb4nUfMnSvkgwDU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="572">
   <si>
     <t>Class</t>
   </si>
@@ -1922,12 +1922,137 @@
   <si>
     <t>[{"id":"30e2167a-5d46-455a-b14d-8951ce5a269f","name":"mock response futureService.doSomething","fieldTypeName":"org.unlogged.demo.service.FutureService","sourceClassName":"org.unlogged.demo.Customer","fieldName":"futureService","methodName":"doSomething","whenParameter":[],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{}","returnValueType":"REAL","className":"java.util.concurrent.CompletableFuture&lt;java.lang.String&gt;"},"methodExitType":"NORMAL"}]},{"id":"b4b309a5-93ba-4034-8065-944012d5888c","name":"mock response LOG.info","fieldTypeName":"java.util.logging.Logger","sourceClassName":"org.unlogged.demo.Customer","fieldName":"LOG","methodName":"info","whenParameter":[{"name":"msg","type":"ANY_OF_TYPE","value":"java.lang.String"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"\"0\"","returnValueType":"REAL","className":"void"},"methodExitType":"NORMAL"}]}]</t>
   </si>
+  <si>
+    <t>org.unlogged.demo.controller.MongoOpsController</t>
+  </si>
+  <si>
+    <t>insertDefault
+()Lorg/unlogged/demo/models/MongoPojo;</t>
+  </si>
+  <si>
+    <t>{"id":"mocked","name":"mocked"}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[{"id":"9aeca893-0190-4998-9298-a6a182c727e9","name":"insertDefault","fieldTypeName":"org.unlogged.demo.dao.mongo.MongoPojoRepo","sourceClassName":"org.unlogged.demo.controller.MongoOpsController","fieldName":"mongoPojoRepo","methodName":"insert","whenParameter":[{"name":"entity","type":"ANY_OF_TYPE","value":"org.unlogged.demo.models.MongoPojo"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\":\"mocked\",\"name\":\"mocked\"}","returnValueType":"REAL","className":"org.unlogged.demo.models.MongoPojo"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.demo.dao.mongo.MongoPojoRepo#insert#(Lorg/unlogged/demo/models/MongoPojo;)Lorg/unlogged/demo/models/MongoPojo;"}]</t>
+  </si>
+  <si>
+    <t>insertNew
+(Lorg/unlogged/demo/models/MongoPojo;)Lorg/unlogged/demo/models/MongoPojo;</t>
+  </si>
+  <si>
+    <t>[org.unlogged.demo.models.MongoPojo : {"id":"string","name":"string"}
+]</t>
+  </si>
+  <si>
+    <t>{"id":"mocked save","name":"mocked save"}</t>
+  </si>
+  <si>
+    <t>[{"id":"410ba5ef-4702-48da-8ca9-e0043ac6fa4f","name":"mock response for call to mongoPojoRepo.insert","fieldTypeName":"org.unlogged.demo.dao.mongo.MongoPojoRepo","sourceClassName":"org.unlogged.demo.controller.MongoOpsController","fieldName":"mongoPojoRepo","methodName":"insert","whenParameter":[{"name":"entity","type":"ANY_OF_TYPE","value":"org.unlogged.demo.models.MongoPojo"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\":\"mocked save\",\"name\":\"mocked save\"}","returnValueType":"REAL","className":"org.unlogged.demo.models.MongoPojo"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.demo.dao.mongo.MongoPojoRepo#insert#(Lorg/unlogged/demo/models/MongoPojo;)Lorg/unlogged/demo/models/MongoPojo;"}]</t>
+  </si>
+  <si>
+    <t>getById
+(Ljava/lang/String;)Lorg/unlogged/demo/models/MongoPojo;</t>
+  </si>
+  <si>
+    <t>{"id":"mocked1","name":"mocked1"}</t>
+  </si>
+  <si>
+    <t>[{"id":"c950c4b8-b524-49be-a6b9-4f13d2b67a30","name":"mock response for call to mongoPojoRepo.findAll","fieldTypeName":"org.unlogged.demo.dao.mongo.MongoPojoRepo","sourceClassName":"org.unlogged.demo.controller.MongoOpsController","fieldName":"mongoPojoRepo","methodName":"findAll","whenParameter":[],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"[{\"id\":\"mocked 1\",\"name\":\"mocked 1\"}]","returnValueType":"REAL","className":"java.util.List&lt;org.unlogged.demo.models.MongoPojo&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.demo.dao.mongo.MongoPojoRepo#findAll#()Ljava/util/List&lt;Lorg/unlogged/demo/models/MongoPojo;&gt;;"},{"id":"31e73a28-42a9-40fc-b68a-7089bfac0210","name":"mock response for call to mongoPojoRepo.findById","fieldTypeName":"org.unlogged.demo.dao.mongo.MongoPojoRepo","sourceClassName":"org.unlogged.demo.controller.MongoOpsController","fieldName":"mongoPojoRepo","methodName":"findById","whenParameter":[{"name":"id","type":"ANY_OF_TYPE","value":"java.lang.String"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\":\"mocked1\",\"name\":\"mocked1\"}","returnValueType":"REAL","className":"java.util.Optional&lt;org.unlogged.demo.models.MongoPojo&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.demo.dao.mongo.MongoPojoRepo#findById#(Ljava/lang/String;)Ljava/util/Optional&lt;Lorg/unlogged/demo/models/MongoPojo;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>updatePojo
+(Lorg/unlogged/demo/models/MongoPojo;)Lorg/unlogged/demo/models/MongoPojo;</t>
+  </si>
+  <si>
+    <t>{"id":"mocked update","name":"mocked update"}</t>
+  </si>
+  <si>
+    <t>[{"id":"67e83ff8-9051-4064-95a4-2b377ed589ba","name":"mock response for call to mongoPojoRepo.save","fieldTypeName":"org.unlogged.demo.dao.mongo.MongoPojoRepo","sourceClassName":"org.unlogged.demo.controller.MongoOpsController","fieldName":"mongoPojoRepo","methodName":"save","whenParameter":[{"name":"entity","type":"ANY_OF_TYPE","value":"org.unlogged.demo.models.MongoPojo"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\":\"mocked update\",\"name\":\"mocked update\"}","returnValueType":"REAL","className":"org.unlogged.demo.models.MongoPojo"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.demo.dao.mongo.MongoPojoRepo#save#(Lorg/unlogged/demo/models/MongoPojo;)Lorg/unlogged/demo/models/MongoPojo;"}]</t>
+  </si>
+  <si>
+    <t>deleteById
+(Ljava/lang/String;)V</t>
+  </si>
+  <si>
+    <t>[{"id":"ab8cf7f4-95f9-4424-ab5f-39d11e33601f","name":"mock response for call to mongoPojoRepo.deleteById","fieldTypeName":"org.unlogged.demo.dao.mongo.MongoPojoRepo","sourceClassName":"org.unlogged.demo.controller.MongoOpsController","fieldName":"mongoPojoRepo","methodName":"deleteById","whenParameter":[{"name":"id","type":"ANY_OF_TYPE","value":"java.lang.String"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"\"0\"","returnValueType":"REAL","className":"void"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.demo.dao.mongo.MongoPojoRepo#deleteById#(Ljava/lang/String;)V"}]</t>
+  </si>
+  <si>
+    <t>org.unlogged.demo.controller.VarOpsController</t>
+  </si>
+  <si>
+    <t>getCustomers
+()Lorg/springframework/http/ResponseEntity&lt;Ljava/util/List&lt;Lorg/unlogged/demo/models/CustomerProfile;&gt;;&gt;;</t>
+  </si>
+  <si>
+    <t>{"headers":{},"body":[{"customerid":0,"customername":"string","dateofbirth":"string","email":"string","contactnumber":null,"address":"string","referralcodes":["string"],"createdDate":"Jun 24, 2024 22:22:47 pm","updatedDate":"Jun 24, 2024 22:22:47 pm"}],"status":"OK"}</t>
+  </si>
+  <si>
+    <t>[{"id":"de68d9c8-8671-4d2c-a8e7-fbfa48e496b0","name":"mock response for call to customerProfileRepo.findAll","fieldTypeName":"org.unlogged.demo.dao.CustomerProfileRepo","sourceClassName":"org.unlogged.demo.controller.VarOpsController","fieldName":"customerProfileRepo","methodName":"findAll","whenParameter":[],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"[{\"customerid\": \"0\", \"customername\": \"string\", \"dateofbirth\": \"string\", \"email\": \"string\", \"contactnumber\": \"string\", \"address\": \"string\", \"referralcodes\": [\"string\"], \"createdDate\": \"2024-06-24T16:52:47.938223\", \"updatedDate\": \"2024-06-24T16:52:47.939579\"}]","returnValueType":"REAL","className":"java.util.List&lt;org.unlogged.demo.models.CustomerProfile&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.demo.dao.CustomerProfileRepo#findAll#()Ljava/util/List&lt;Lorg/unlogged/demo/models/CustomerProfile;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>org.unlogged.demo.controller.abstractions.PropertyControllerImpl</t>
+  </si>
+  <si>
+    <t>findById
+(Ljava/lang/Long;)Lorg/unlogged/demo/models/abstraction/PropertyDetails;</t>
+  </si>
+  <si>
+    <t>[java.lang.Long : "0"
+]</t>
+  </si>
+  <si>
+    <t>{"propertyId":0,"propertyName":"string","description":"string","ownerDetails":{"ownerId":0,"name":"string","email":"string","phone":"string","officeLocationDetails":{"locationId":0,"addressString":"string","city":"string","zipCode":"string","country":"string","state":"string","latitude":0.0,"longitude":0.0}},"locationDetails":{"locationId":0,"addressString":"string","city":"string","zipCode":"string","country":"string","state":"string","latitude":0.0,"longitude":0.0},"roomDetailsList":[{"roomId":"0","parentPropertyId":"0","roomName":"string","roomDescription":"string","roomType":"PROPERTY","pricePerDay":"0","maxCapacity":"0","occupiedCapacity":"0","customPriceMap":{"keyFromClassMap":"0"},"amenitiesList":["AC"]}]}</t>
+  </si>
+  <si>
+    <t>[{"id":"a06d9100-b0e7-4349-b170-8f20e283f287","name":"mock response for call to mappedCrudService.getById","fieldTypeName":"org.unlogged.demo.service.abstractions.PropertyService&lt;org.unlogged.demo.models.abstraction.PropertyDetails,java.lang.Long&gt;","sourceClassName":"org.unlogged.demo.controller.abstractions.PropertyControllerImpl","fieldName":"mappedCrudService","methodName":"getById","whenParameter":[{"name":"id","type":"ANY_OF_TYPE","value":"java.lang.Long"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"propertyId\": \"0\", \"propertyName\": \"string\", \"description\": \"string\", \"ownerDetails\": {\"ownerId\": \"0\", \"name\": \"string\", \"email\": \"string\", \"phone\": \"string\", \"officeLocationDetails\": {\"locationId\": \"0\", \"addressString\": \"string\", \"city\": \"string\", \"zipCode\": \"string\", \"country\": \"string\", \"state\": \"string\", \"latitude\": \"0\", \"longitude\": \"0\"}}, \"locationDetails\": {\"locationId\": \"0\", \"addressString\": \"string\", \"city\": \"string\", \"zipCode\": \"string\", \"country\": \"string\", \"state\": \"string\", \"latitude\": \"0\", \"longitude\": \"0\"}, \"roomDetailsList\": [{\"roomId\": \"0\", \"parentPropertyId\": \"0\", \"roomName\": \"string\", \"roomDescription\": \"string\", \"roomType\": \"PROPERTY\", \"pricePerDay\": \"0\", \"maxCapacity\": \"0\", \"occupiedCapacity\": \"0\", \"customPriceMap\": {\"keyFromClassMap\": \"0\"}, \"amenitiesList\": [\"AC\"]}]}","returnValueType":"REAL","className":"org.unlogged.demo.models.abstraction.PropertyDetails"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.demo.service.abstractions.PropertyService&lt;org.unlogged.demo.models.abstraction.PropertyDetails,java.lang.Long&gt;#getById#(LID;)T"}]</t>
+  </si>
+  <si>
+    <t>findAll
+()Ljava/util/List&lt;Lorg/unlogged/demo/models/abstraction/PropertyDetails;&gt;;</t>
+  </si>
+  <si>
+    <t>[{"id":"6b6ea354-0b7b-444c-89c2-f809bfa3afe0","name":"mock response for call to mappedCrudService.getAll","fieldTypeName":"org.unlogged.demo.service.abstractions.PropertyService&lt;org.unlogged.demo.models.abstraction.PropertyDetails,java.lang.Long&gt;","sourceClassName":"org.unlogged.demo.controller.abstractions.PropertyControllerImpl","fieldName":"mappedCrudService","methodName":"getAll","whenParameter":[],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"[{\"propertyId\": \"0\", \"propertyName\": \"string\", \"description\": \"string\", \"ownerDetails\": {\"ownerId\": \"0\", \"name\": \"string\", \"email\": \"string\", \"phone\": \"string\", \"officeLocationDetails\": {\"locationId\": \"0\", \"addressString\": \"string\", \"city\": \"string\", \"zipCode\": \"string\", \"country\": \"string\", \"state\": \"string\", \"latitude\": \"0\", \"longitude\": \"0\"}}, \"locationDetails\": {\"locationId\": \"0\", \"addressString\": \"string\", \"city\": \"string\", \"zipCode\": \"string\", \"country\": \"string\", \"state\": \"string\", \"latitude\": \"0\", \"longitude\": \"0\"}, \"roomDetailsList\": [{\"roomId\": \"0\", \"parentPropertyId\": \"0\", \"roomName\": \"string\", \"roomDescription\": \"string\", \"roomType\": \"PROPERTY\", \"pricePerDay\": \"0\", \"maxCapacity\": \"0\", \"occupiedCapacity\": \"0\", \"customPriceMap\": {\"keyFromClassMap\": \"0\"}, \"amenitiesList\": [\"AC\"]}]}]","returnValueType":"REAL","className":"java.util.List&lt;org.unlogged.demo.models.abstraction.PropertyDetails&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.demo.service.abstractions.PropertyService&lt;org.unlogged.demo.models.abstraction.PropertyDetails,java.lang.Long&gt;#getAll#()Ljava/util/Collection&lt;E&gt;;"}]</t>
+  </si>
+  <si>
+    <t>org.unlogged.demo.controller.abstractions.PropertyController</t>
+  </si>
+  <si>
+    <t>[{"propertyId":1,"propertyName":"Default Property","description":null,"ownerDetails":null,"locationDetails":null,"roomDetailsList":null},{"propertyId":2,"propertyName":"Property 2","description":null,"ownerDetails":null,"locationDetails":null,"roomDetailsList":null}]</t>
+  </si>
+  <si>
+    <t>insertNew
+(Lorg/unlogged/demo/models/abstraction/PropertyDetails;)Lorg/unlogged/demo/models/abstraction/PropertyDetails;</t>
+  </si>
+  <si>
+    <t>[org.unlogged.demo.models.abstraction.PropertyDetails : {"propertyId":"0","propertyName":"string","description":"string","ownerDetails":{"ownerId":"0","name":"string","email":"string","phone":"string","officeLocationDetails":{"locationId":"0","addressString":"string","city":"string","zipCode":"string","country":"string","state":"string","latitude":"0","longitude":"0"}},"locationDetails":{"locationId":"0","addressString":"string","city":"string","zipCode":"string","country":"string","state":"string","latitude":"0","longitude":"0"},"roomDetailsList":[{"roomId":"0","parentPropertyId":"0","roomName":"string","roomDescription":"string","roomType":"PROPERTY","pricePerDay":"0","maxCapacity":"0","occupiedCapacity":"0","customPriceMap":{"keyFromClassMap":"0"},"amenitiesList":["AC"]}]}
+]</t>
+  </si>
+  <si>
+    <t>{"propertyId":0,"propertyName":"string#Added","description":"string","ownerDetails":{"ownerId":0,"name":"string","email":"string","phone":"string","officeLocationDetails":{"locationId":0,"addressString":"string","city":"string","zipCode":"string","country":"string","state":"string","latitude":0.0,"longitude":0.0}},"locationDetails":{"locationId":0,"addressString":"string","city":"string","zipCode":"string","country":"string","state":"string","latitude":0.0,"longitude":0.0},"roomDetailsList":[{"roomId":"0","parentPropertyId":"0","roomName":"string","roomDescription":"string","roomType":"PROPERTY","pricePerDay":"0","maxCapacity":"0","occupiedCapacity":"0","customPriceMap":{"keyFromClassMap":"0"},"amenitiesList":["AC"]}]}</t>
+  </si>
+  <si>
+    <t>update
+(Lorg/unlogged/demo/models/abstraction/PropertyDetails;)Lorg/unlogged/demo/models/abstraction/PropertyDetails;</t>
+  </si>
+  <si>
+    <t>{"propertyId":0,"propertyName":"string#Updated","description":"string","ownerDetails":{"ownerId":0,"name":"string","email":"string","phone":"string","officeLocationDetails":{"locationId":0,"addressString":"string","city":"string","zipCode":"string","country":"string","state":"string","latitude":0.0,"longitude":0.0}},"locationDetails":{"locationId":0,"addressString":"string","city":"string","zipCode":"string","country":"string","state":"string","latitude":0.0,"longitude":0.0},"roomDetailsList":[{"roomId":"0","parentPropertyId":"0","roomName":"string","roomDescription":"string","roomType":"PROPERTY","pricePerDay":"0","maxCapacity":"0","occupiedCapacity":"0","customPriceMap":{"keyFromClassMap":"0"},"amenitiesList":["AC"]}]}</t>
+  </si>
+  <si>
+    <t>deleteById
+(Ljava/lang/Long;)Lorg/unlogged/demo/models/abstraction/PropertyDetails;</t>
+  </si>
+  <si>
+    <t>[{"id":"d7fc1b83-38df-41ad-9c46-7d012f10dfa1","name":"mock response for call to mappedCrudService.deleteById","fieldTypeName":"org.unlogged.demo.service.abstractions.PropertyService&lt;org.unlogged.demo.models.abstraction.PropertyDetails,java.lang.Long&gt;","sourceClassName":"org.unlogged.demo.controller.abstractions.PropertyControllerImpl","fieldName":"mappedCrudService","methodName":"deleteById","whenParameter":[{"name":"id","type":"ANY_OF_TYPE","value":"java.lang.Long"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"propertyId\": \"0\", \"propertyName\": \"string\", \"description\": \"string\", \"ownerDetails\": {\"ownerId\": \"0\", \"name\": \"string\", \"email\": \"string\", \"phone\": \"string\", \"officeLocationDetails\": {\"locationId\": \"0\", \"addressString\": \"string\", \"city\": \"string\", \"zipCode\": \"string\", \"country\": \"string\", \"state\": \"string\", \"latitude\": \"0\", \"longitude\": \"0\"}}, \"locationDetails\": {\"locationId\": \"0\", \"addressString\": \"string\", \"city\": \"string\", \"zipCode\": \"string\", \"country\": \"string\", \"state\": \"string\", \"latitude\": \"0\", \"longitude\": \"0\"}, \"roomDetailsList\": [{\"roomId\": \"0\", \"parentPropertyId\": \"0\", \"roomName\": \"string\", \"roomDescription\": \"string\", \"roomType\": \"PROPERTY\", \"pricePerDay\": \"0\", \"maxCapacity\": \"0\", \"occupiedCapacity\": \"0\", \"customPriceMap\": {\"keyFromClassMap\": \"0\"}, \"amenitiesList\": [\"AC\"]}]}","returnValueType":"REAL","className":"org.unlogged.demo.models.abstraction.PropertyDetails"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.demo.service.abstractions.PropertyService&lt;org.unlogged.demo.models.abstraction.PropertyDetails,java.lang.Long&gt;#deleteById#(LID;)T"}]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1938,6 +2063,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1954,13 +2084,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2188,7 +2324,7 @@
     <col customWidth="1" min="9" max="9" width="17.71"/>
     <col customWidth="1" min="10" max="10" width="3575.29"/>
     <col customWidth="1" min="11" max="11" width="100.14"/>
-    <col customWidth="1" min="12" max="21" width="8.71"/>
+    <col customWidth="1" min="12" max="22" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11683,18 +11819,534 @@
         <v>125</v>
       </c>
     </row>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="A322" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G322" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="I322" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J322" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="K322" s="3"/>
+      <c r="L322" s="3"/>
+      <c r="M322" s="3"/>
+      <c r="N322" s="3"/>
+      <c r="O322" s="3"/>
+      <c r="P322" s="3"/>
+      <c r="Q322" s="3"/>
+      <c r="R322" s="3"/>
+      <c r="S322" s="3"/>
+      <c r="T322" s="3"/>
+      <c r="U322" s="3"/>
+      <c r="V322" s="3"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="A323" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G323" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J323" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="K323" s="3"/>
+      <c r="L323" s="3"/>
+      <c r="M323" s="3"/>
+      <c r="N323" s="3"/>
+      <c r="O323" s="3"/>
+      <c r="P323" s="3"/>
+      <c r="Q323" s="3"/>
+      <c r="R323" s="3"/>
+      <c r="S323" s="3"/>
+      <c r="T323" s="3"/>
+      <c r="U323" s="3"/>
+      <c r="V323" s="3"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="A324" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G324" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J324" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="K324" s="3"/>
+      <c r="L324" s="3"/>
+      <c r="M324" s="3"/>
+      <c r="N324" s="3"/>
+      <c r="O324" s="3"/>
+      <c r="P324" s="3"/>
+      <c r="Q324" s="3"/>
+      <c r="R324" s="3"/>
+      <c r="S324" s="3"/>
+      <c r="T324" s="3"/>
+      <c r="U324" s="3"/>
+      <c r="V324" s="3"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="A325" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G325" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J325" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="K325" s="3"/>
+      <c r="L325" s="3"/>
+      <c r="M325" s="3"/>
+      <c r="N325" s="3"/>
+      <c r="O325" s="3"/>
+      <c r="P325" s="3"/>
+      <c r="Q325" s="3"/>
+      <c r="R325" s="3"/>
+      <c r="S325" s="3"/>
+      <c r="T325" s="3"/>
+      <c r="U325" s="3"/>
+      <c r="V325" s="3"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="A326" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G326" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J326" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="K326" s="3"/>
+      <c r="L326" s="3"/>
+      <c r="M326" s="3"/>
+      <c r="N326" s="3"/>
+      <c r="O326" s="3"/>
+      <c r="P326" s="3"/>
+      <c r="Q326" s="3"/>
+      <c r="R326" s="3"/>
+      <c r="S326" s="3"/>
+      <c r="T326" s="3"/>
+      <c r="U326" s="3"/>
+      <c r="V326" s="3"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="A327" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G327" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="I327" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J327" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="K327" s="3"/>
+      <c r="L327" s="3"/>
+      <c r="M327" s="3"/>
+      <c r="N327" s="3"/>
+      <c r="O327" s="3"/>
+      <c r="P327" s="3"/>
+      <c r="Q327" s="3"/>
+      <c r="R327" s="3"/>
+      <c r="S327" s="3"/>
+      <c r="T327" s="3"/>
+      <c r="U327" s="3"/>
+      <c r="V327" s="3"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="A328" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G328" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J328" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="K328" s="3"/>
+      <c r="L328" s="3"/>
+      <c r="M328" s="3"/>
+      <c r="N328" s="3"/>
+      <c r="O328" s="3"/>
+      <c r="P328" s="3"/>
+      <c r="Q328" s="3"/>
+      <c r="R328" s="3"/>
+      <c r="S328" s="3"/>
+      <c r="T328" s="3"/>
+      <c r="U328" s="3"/>
+      <c r="V328" s="3"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="A329" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G329" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J329" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="K329" s="3"/>
+      <c r="L329" s="3"/>
+      <c r="M329" s="3"/>
+      <c r="N329" s="3"/>
+      <c r="O329" s="3"/>
+      <c r="P329" s="3"/>
+      <c r="Q329" s="3"/>
+      <c r="R329" s="3"/>
+      <c r="S329" s="3"/>
+      <c r="T329" s="3"/>
+      <c r="U329" s="3"/>
+      <c r="V329" s="3"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="A330" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G330" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="I330" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J330" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K330" s="3"/>
+      <c r="L330" s="3"/>
+      <c r="M330" s="3"/>
+      <c r="N330" s="3"/>
+      <c r="O330" s="3"/>
+      <c r="P330" s="3"/>
+      <c r="Q330" s="3"/>
+      <c r="R330" s="3"/>
+      <c r="S330" s="3"/>
+      <c r="T330" s="3"/>
+      <c r="U330" s="3"/>
+      <c r="V330" s="3"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="A331" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G331" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="I331" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J331" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K331" s="3"/>
+      <c r="L331" s="3"/>
+      <c r="M331" s="3"/>
+      <c r="N331" s="3"/>
+      <c r="O331" s="3"/>
+      <c r="P331" s="3"/>
+      <c r="Q331" s="3"/>
+      <c r="R331" s="3"/>
+      <c r="S331" s="3"/>
+      <c r="T331" s="3"/>
+      <c r="U331" s="3"/>
+      <c r="V331" s="3"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="A332" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G332" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K332" s="3"/>
+      <c r="L332" s="3"/>
+      <c r="M332" s="3"/>
+      <c r="N332" s="3"/>
+      <c r="O332" s="3"/>
+      <c r="P332" s="3"/>
+      <c r="Q332" s="3"/>
+      <c r="R332" s="3"/>
+      <c r="S332" s="3"/>
+      <c r="T332" s="3"/>
+      <c r="U332" s="3"/>
+      <c r="V332" s="3"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="A333" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G333" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J333" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="K333" s="3"/>
+      <c r="L333" s="3"/>
+      <c r="M333" s="3"/>
+      <c r="N333" s="3"/>
+      <c r="O333" s="3"/>
+      <c r="P333" s="3"/>
+      <c r="Q333" s="3"/>
+      <c r="R333" s="3"/>
+      <c r="S333" s="3"/>
+      <c r="T333" s="3"/>
+      <c r="U333" s="3"/>
+      <c r="V333" s="3"/>
+    </row>
     <row r="334" ht="15.75" customHeight="1"/>
     <row r="335" ht="15.75" customHeight="1"/>
     <row r="336" ht="15.75" customHeight="1"/>
